--- a/battles/Gabiene/Gabiene.xlsx
+++ b/battles/Gabiene/Gabiene.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\code\training\gboh-companion\battles\Gabiene\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A9B44E-7E69-4929-9DEB-A2F5F620E78C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antigonous" sheetId="1" r:id="rId1"/>
@@ -12,28 +18,26 @@
     <sheet name="Leaders Antigonid" sheetId="3" r:id="rId3"/>
     <sheet name="Leaders Eumenid" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
-  </pivotCaches>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="199">
   <si>
     <t>Kind</t>
   </si>
@@ -86,21 +90,6 @@
     <t>Nb mens</t>
   </si>
   <si>
-    <t>Totals</t>
-  </si>
-  <si>
-    <t>Infantry</t>
-  </si>
-  <si>
-    <t>Sum of Nb mens</t>
-  </si>
-  <si>
-    <t>Count of Unit code</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>StackedOn</t>
   </si>
   <si>
@@ -108,12 +97,6 @@
   </si>
   <si>
     <t>MJ</t>
-  </si>
-  <si>
-    <t>Étiquettes de lignes</t>
-  </si>
-  <si>
-    <t>Somme</t>
   </si>
   <si>
     <t>ANT</t>
@@ -656,7 +639,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -815,119 +798,115 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="101">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -941,250 +920,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Laurent Kloetzer" refreshedDate="44563.540978240744" createdVersion="6" refreshedVersion="4" minRefreshableVersion="3" recordCount="2">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:M3" sheet="Antigonous"/>
-  </cacheSource>
-  <cacheFields count="13">
-    <cacheField name="Kind" numFmtId="0">
-      <sharedItems count="9">
-        <s v="HI"/>
-        <s v="CH" u="1"/>
-        <s v="LN" u="1"/>
-        <s v="SK" u="1"/>
-        <s v="LC" u="1"/>
-        <s v="HC" u="1"/>
-        <s v="EL" u="1"/>
-        <s v="LI" u="1"/>
-        <s v="MI" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Subclass" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Origin" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Number" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
-    </cacheField>
-    <cacheField name="Unit code" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="TQ" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="8" count="6">
-        <n v="8"/>
-        <n v="6" u="1"/>
-        <n v="3" u="1"/>
-        <n v="7" u="1"/>
-        <n v="4" u="1"/>
-        <n v="5" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Size" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="10"/>
-    </cacheField>
-    <cacheField name="Missile" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Hits" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="State" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="MissileStatus" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Unit global type" numFmtId="0">
-      <sharedItems count="6">
-        <s v="Infantry"/>
-        <s v="CH" u="1"/>
-        <s v="LN" u="1"/>
-        <s v="SK" u="1"/>
-        <s v="EL" u="1"/>
-        <s v="Cavalry" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Nb mens" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1500" maxValue="1500"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
-  <r>
-    <x v="0"/>
-    <s v="HO"/>
-    <s v="Greek"/>
-    <n v="1"/>
-    <s v="GHI1"/>
-    <x v="0"/>
-    <n v="10"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <n v="1500"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="HO"/>
-    <s v="Greek"/>
-    <n v="2"/>
-    <s v="GHI2"/>
-    <x v="0"/>
-    <n v="10"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <n v="1500"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M69:N72" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item m="1" x="1"/>
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Nb mens" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A69:B73" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item m="1" x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="2"/>
-        <item m="1" x="8"/>
-        <item m="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item m="1" x="2"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="1"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Unit code" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1508,22 +1243,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D46" sqref="A1:M58"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="13" max="13" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1558,18 +1293,15 @@
         <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1585,23 +1317,15 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="str">
-        <f t="shared" ref="L2:L3" si="1">IF(OR(RIGHT(A2)="C",A2="LN"),"Cavalry",IF(RIGHT(A2)="I","Infantry",A2))</f>
-        <v>SK</v>
-      </c>
-      <c r="M2">
-        <f t="shared" ref="M2:M3" si="2">IF(L2="Cavalry",G2*100,IF(L2="Infantry",G2*150,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1617,23 +1341,15 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" t="str">
-        <f t="shared" si="1"/>
-        <v>SK</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1649,23 +1365,15 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" ref="L4:L8" si="3">IF(OR(RIGHT(A4)="C",A4="LN"),"Cavalry",IF(RIGHT(A4)="I","Infantry",A4))</f>
-        <v>SK</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M8" si="4">IF(L4="Cavalry",G4*100,IF(L4="Infantry",G4*150,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1681,23 +1389,15 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="3"/>
-        <v>SK</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1713,23 +1413,15 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="3"/>
-        <v>SK</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1745,29 +1437,21 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="3"/>
-        <v>SK</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" ref="E8:E9" si="5">LEFT(C8,2)&amp;A8&amp;D8</f>
+        <f t="shared" ref="E8:E9" si="1">LEFT(C8,2)&amp;A8&amp;D8</f>
         <v>SiSK7</v>
       </c>
       <c r="F8">
@@ -1777,29 +1461,21 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="3"/>
-        <v>SK</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>SiSK8</v>
       </c>
       <c r="F9">
@@ -1809,29 +1485,21 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" ref="L9:L11" si="6">IF(OR(RIGHT(A9)="C",A9="LN"),"Cavalry",IF(RIGHT(A9)="I","Infantry",A9))</f>
-        <v>SK</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ref="M9:M11" si="7">IF(L9="Cavalry",G9*100,IF(L9="Infantry",G9*150,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" ref="E10:E11" si="8">LEFT(C10)&amp;A10&amp;D10</f>
+        <f t="shared" ref="E10:E11" si="2">LEFT(C10)&amp;A10&amp;D10</f>
         <v>USK1</v>
       </c>
       <c r="F10">
@@ -1841,29 +1509,21 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="6"/>
-        <v>SK</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>USK2</v>
       </c>
       <c r="F11">
@@ -1873,29 +1533,21 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="6"/>
-        <v>SK</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -1904,29 +1556,21 @@
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" ref="L12:L13" si="9">IF(OR(RIGHT(A12)="C",A12="LN"),"Cavalry",IF(RIGHT(A12)="I","Infantry",A12))</f>
-        <v>EL</v>
-      </c>
-      <c r="M12">
-        <f t="shared" ref="M12:M13" si="10">IF(L12="Cavalry",G12*100,IF(L12="Infantry",G12*150,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -1935,29 +1579,21 @@
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="9"/>
-        <v>EL</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -1966,21 +1602,21 @@
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -1989,21 +1625,21 @@
         <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -2012,21 +1648,21 @@
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -2035,21 +1671,21 @@
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -2058,21 +1694,21 @@
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -2081,21 +1717,21 @@
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D20">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -2104,21 +1740,21 @@
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D21">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -2127,21 +1763,21 @@
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -2150,21 +1786,21 @@
         <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D23">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F23">
         <v>6</v>
@@ -2173,24 +1809,24 @@
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F24">
         <v>6</v>
@@ -2199,21 +1835,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -2222,18 +1858,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F26">
         <v>6</v>
@@ -2242,18 +1878,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -2262,18 +1898,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F28">
         <v>6</v>
@@ -2282,18 +1918,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F29">
         <v>6</v>
@@ -2302,18 +1938,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -2322,21 +1958,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
         <v>67</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>74</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -2345,21 +1981,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -2368,21 +2004,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F33">
         <v>7</v>
@@ -2391,21 +2027,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D34">
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -2414,21 +2050,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D35">
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -2437,18 +2073,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F36">
         <v>6</v>
@@ -2457,21 +2093,21 @@
         <v>4</v>
       </c>
       <c r="H36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F37">
         <v>6</v>
@@ -2480,21 +2116,21 @@
         <v>4</v>
       </c>
       <c r="H37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F38">
         <v>6</v>
@@ -2503,21 +2139,21 @@
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F39">
         <v>6</v>
@@ -2526,22 +2162,22 @@
         <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
       <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
         <v>84</v>
       </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="E40" t="s">
-        <v>91</v>
-      </c>
       <c r="F40">
         <v>6</v>
       </c>
@@ -2549,19 +2185,19 @@
         <v>5</v>
       </c>
       <c r="H40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
       <c r="C41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" t="s">
         <v>85</v>
       </c>
-      <c r="E41" t="s">
-        <v>92</v>
-      </c>
       <c r="F41">
         <v>7</v>
       </c>
@@ -2569,19 +2205,19 @@
         <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
       <c r="C42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" t="s">
         <v>86</v>
       </c>
-      <c r="E42" t="s">
-        <v>93</v>
-      </c>
       <c r="F42">
         <v>7</v>
       </c>
@@ -2589,19 +2225,19 @@
         <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" t="s">
         <v>87</v>
       </c>
-      <c r="E43" t="s">
-        <v>94</v>
-      </c>
       <c r="F43">
         <v>7</v>
       </c>
@@ -2609,19 +2245,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
         <v>88</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>95</v>
-      </c>
       <c r="F44">
         <v>7</v>
       </c>
@@ -2629,18 +2265,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F45">
         <v>7</v>
@@ -2649,15 +2285,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F46">
         <v>7</v>
@@ -2666,18 +2302,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F47">
         <v>7</v>
@@ -2686,18 +2322,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F48">
         <v>7</v>
@@ -2706,18 +2342,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F49">
         <v>7</v>
@@ -2726,18 +2362,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D50">
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F50">
         <v>7</v>
@@ -2746,18 +2382,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D51">
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F51">
         <v>7</v>
@@ -2766,15 +2402,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F52">
         <v>7</v>
@@ -2783,18 +2419,18 @@
         <v>5</v>
       </c>
       <c r="H52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F53">
         <v>7</v>
@@ -2803,18 +2439,18 @@
         <v>5</v>
       </c>
       <c r="H53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F54">
         <v>7</v>
@@ -2823,18 +2459,18 @@
         <v>5</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F55">
         <v>7</v>
@@ -2843,18 +2479,18 @@
         <v>5</v>
       </c>
       <c r="H55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F56">
         <v>8</v>
@@ -2863,18 +2499,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F57">
         <v>7</v>
@@ -2883,99 +2519,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D58">
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F58">
         <v>7</v>
       </c>
       <c r="G58">
         <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64">
-        <f>SUM(F2:F22)</f>
-        <v>96</v>
-      </c>
-      <c r="G64">
-        <f>SUM(G2:G22)</f>
-        <v>65</v>
-      </c>
-      <c r="M64">
-        <f>SUM(M2:M17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" t="s">
-        <v>26</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N70" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="4">
-        <v>2</v>
-      </c>
-      <c r="M71" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N71" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="5">
-        <v>8</v>
-      </c>
-      <c r="B72" s="4">
-        <v>2</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N72" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73" s="4">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2991,23 +2552,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H6" sqref="A1:N70"/>
+    <sheetView tabSelected="1" topLeftCell="D52" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3041,7 +2602,7 @@
         <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M1" t="s">
         <v>15</v>
@@ -3050,19 +2611,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="3" t="s">
-        <v>39</v>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F2" s="1">
         <v>3</v>
@@ -3071,30 +2632,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="str">
-        <f t="shared" ref="M2:M3" si="0">IF(OR(RIGHT(A2)="C",A2="LN"),"Cavalry",IF(OR(RIGHT(A2)="I",A2="PH",A2="LP"),"Infantry",A2))</f>
-        <v>SK</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N3" si="1">IF(M2="Cavalry",G2*100,IF(M2="Infantry",G2*150,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -3103,30 +2656,22 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" t="str">
-        <f t="shared" si="0"/>
-        <v>SK</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -3135,30 +2680,22 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="str">
-        <f t="shared" ref="M4:M5" si="2">IF(OR(RIGHT(A4)="C",A4="LN"),"Cavalry",IF(OR(RIGHT(A4)="I",A4="PH",A4="LP"),"Infantry",A4))</f>
-        <v>SK</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N5" si="3">IF(M4="Cavalry",G4*100,IF(M4="Infantry",G4*150,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -3167,30 +2704,22 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" t="str">
-        <f t="shared" si="2"/>
-        <v>SK</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -3199,30 +2728,22 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" t="str">
-        <f t="shared" ref="M6:M12" si="4">IF(OR(RIGHT(A6)="C",A6="LN"),"Cavalry",IF(OR(RIGHT(A6)="I",A6="PH",A6="LP"),"Infantry",A6))</f>
-        <v>SK</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ref="N6:N12" si="5">IF(M6="Cavalry",G6*100,IF(M6="Infantry",G6*150,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -3231,31 +2752,23 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" t="str">
-        <f t="shared" si="4"/>
-        <v>SK</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="1">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="F8" s="1">
         <v>3</v>
       </c>
@@ -3263,30 +2776,22 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" t="str">
-        <f t="shared" si="4"/>
-        <v>SK</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -3295,29 +2800,21 @@
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" t="str">
-        <f t="shared" si="4"/>
-        <v>SK</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
@@ -3326,29 +2823,21 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" t="str">
-        <f t="shared" si="4"/>
-        <v>SK</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
@@ -3357,29 +2846,21 @@
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" t="str">
-        <f t="shared" si="4"/>
-        <v>SK</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1">
         <v>6</v>
@@ -3388,29 +2869,21 @@
         <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" t="str">
-        <f t="shared" si="4"/>
-        <v>EL</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1">
         <v>6</v>
@@ -3419,29 +2892,21 @@
         <v>5</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" ref="M13:M22" si="6">IF(OR(RIGHT(A13)="C",A13="LN"),"Cavalry",IF(OR(RIGHT(A13)="I",A13="PH",A13="LP"),"Infantry",A13))</f>
-        <v>EL</v>
-      </c>
-      <c r="N13">
-        <f t="shared" ref="N13:N22" si="7">IF(M13="Cavalry",G13*100,IF(M13="Infantry",G13*150,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1">
         <v>6</v>
@@ -3450,29 +2915,21 @@
         <v>5</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="6"/>
-        <v>EL</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1">
         <v>6</v>
@@ -3481,61 +2938,45 @@
         <v>5</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" t="str">
-        <f t="shared" si="6"/>
-        <v>EL</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="1">
-        <v>6</v>
-      </c>
-      <c r="G16" s="1">
-        <v>5</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" t="str">
-        <f t="shared" si="6"/>
-        <v>EL</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="1">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="F17" s="1">
         <v>6</v>
       </c>
@@ -3543,60 +2984,44 @@
         <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="6"/>
-        <v>EL</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D18" s="1">
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="1">
-        <v>6</v>
-      </c>
-      <c r="G18" s="1">
-        <v>5</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" t="str">
-        <f t="shared" si="6"/>
-        <v>EL</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>44</v>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D19" s="1">
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1">
         <v>6</v>
@@ -3605,29 +3030,21 @@
         <v>5</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" t="str">
-        <f t="shared" ref="M19" si="8">IF(OR(RIGHT(A19)="C",A19="LN"),"Cavalry",IF(OR(RIGHT(A19)="I",A19="PH",A19="LP"),"Infantry",A19))</f>
-        <v>EL</v>
-      </c>
-      <c r="N19">
-        <f t="shared" ref="N19" si="9">IF(M19="Cavalry",G19*100,IF(M19="Infantry",G19*150,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D20" s="1">
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1">
         <v>6</v>
@@ -3636,29 +3053,21 @@
         <v>5</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" t="str">
-        <f t="shared" si="6"/>
-        <v>EL</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D21" s="1">
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F21" s="1">
         <v>6</v>
@@ -3667,29 +3076,21 @@
         <v>5</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M21" t="str">
-        <f t="shared" si="6"/>
-        <v>EL</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D22" s="1">
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F22" s="1">
         <v>6</v>
@@ -3698,29 +3099,21 @@
         <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M22" t="str">
-        <f t="shared" si="6"/>
-        <v>EL</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D23" s="1">
         <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F23" s="1">
         <v>6</v>
@@ -3729,29 +3122,21 @@
         <v>5</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M23" t="str">
-        <f t="shared" ref="M23:M24" si="10">IF(OR(RIGHT(A23)="C",A23="LN"),"Cavalry",IF(OR(RIGHT(A23)="I",A23="PH",A23="LP"),"Infantry",A23))</f>
-        <v>EL</v>
-      </c>
-      <c r="N23">
-        <f t="shared" ref="N23:N24" si="11">IF(M23="Cavalry",G23*100,IF(M23="Infantry",G23*150,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D24" s="1">
         <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F24" s="1">
         <v>6</v>
@@ -3760,29 +3145,21 @@
         <v>5</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M24" t="str">
-        <f t="shared" si="10"/>
-        <v>EL</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D25" s="1">
         <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F25" s="1">
         <v>6</v>
@@ -3791,21 +3168,21 @@
         <v>5</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D26" s="1">
         <v>15</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F26" s="1">
         <v>6</v>
@@ -3814,25 +3191,21 @@
         <v>5</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N26">
-        <f>SUM(N2:N22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D27" s="1">
         <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F27" s="1">
         <v>6</v>
@@ -3841,21 +3214,21 @@
         <v>5</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D28" s="1">
         <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F28" s="1">
         <v>6</v>
@@ -3864,21 +3237,21 @@
         <v>5</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D29" s="1">
         <v>18</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F29" s="1">
         <v>6</v>
@@ -3887,21 +3260,21 @@
         <v>5</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D30" s="1">
         <v>19</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F30" s="1">
         <v>6</v>
@@ -3910,21 +3283,21 @@
         <v>5</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D31" s="1">
         <v>20</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F31" s="1">
         <v>6</v>
@@ -3933,23 +3306,23 @@
         <v>5</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N31" s="3"/>
-      <c r="O31" s="4"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D32" s="1">
         <v>21</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F32" s="1">
         <v>6</v>
@@ -3958,23 +3331,23 @@
         <v>5</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D33" s="1">
         <v>22</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F33" s="1">
         <v>6</v>
@@ -3983,23 +3356,23 @@
         <v>5</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="4"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D34" s="1">
         <v>23</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F34" s="1">
         <v>6</v>
@@ -4008,26 +3381,26 @@
         <v>5</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>23</v>
+      <c r="B35" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F35" s="1">
         <v>6</v>
@@ -4036,21 +3409,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>23</v>
+      <c r="B36" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F36" s="1">
         <v>6</v>
@@ -4059,21 +3432,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>23</v>
+      <c r="B37" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F37" s="1">
         <v>6</v>
@@ -4082,21 +3455,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>23</v>
+      <c r="B38" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F38" s="1">
         <v>6</v>
@@ -4105,19 +3478,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="4"/>
+      <c r="B39" s="3"/>
       <c r="C39" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F39" s="1">
         <v>7</v>
@@ -4126,19 +3499,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="3"/>
       <c r="C40" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D40" s="1">
         <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F40" s="1">
         <v>7</v>
@@ -4147,19 +3520,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="3"/>
       <c r="C41" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F41" s="1">
         <v>7</v>
@@ -4168,19 +3541,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="3"/>
       <c r="C42" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D42" s="1">
         <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F42" s="1">
         <v>7</v>
@@ -4189,18 +3562,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F43" s="1">
         <v>7</v>
@@ -4209,18 +3582,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D44" s="1">
         <v>2</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F44" s="1">
         <v>7</v>
@@ -4229,18 +3602,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F45" s="1">
         <v>7</v>
@@ -4249,18 +3622,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D46" s="1">
         <v>4</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F46" s="1">
         <v>7</v>
@@ -4269,18 +3642,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F47" s="1">
         <v>8</v>
@@ -4289,18 +3662,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F48" s="1">
         <v>8</v>
@@ -4309,18 +3682,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F49" s="1">
         <v>8</v>
@@ -4329,18 +3702,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D50" s="1">
         <v>4</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F50" s="1">
         <v>8</v>
@@ -4349,15 +3722,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="3" t="s">
-        <v>79</v>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F51" s="1">
         <v>6</v>
@@ -4366,15 +3739,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F52" s="1">
         <v>7</v>
@@ -4383,75 +3756,75 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F53" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G53" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D54" s="1">
         <v>2</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F54" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G54" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" s="1">
+        <v>7</v>
+      </c>
+      <c r="G55" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F55" s="1">
-        <v>7</v>
-      </c>
-      <c r="G55" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="F56" s="1">
         <v>8</v>
@@ -4460,18 +3833,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F57" s="1">
         <v>8</v>
@@ -4480,18 +3853,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="F58" s="1">
         <v>7</v>
@@ -4500,18 +3873,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D59">
         <v>2</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F59" s="1">
         <v>7</v>
@@ -4520,15 +3893,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F60" s="1">
         <v>6</v>
@@ -4537,18 +3910,18 @@
         <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F61" s="1">
         <v>6</v>
@@ -4557,21 +3930,21 @@
         <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F62" s="1">
         <v>7</v>
@@ -4580,138 +3953,138 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F63" s="1">
+        <v>7</v>
+      </c>
+      <c r="G63" s="1">
+        <v>3</v>
+      </c>
+      <c r="H63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" s="1">
+        <v>6</v>
+      </c>
+      <c r="G64" s="1">
+        <v>3</v>
+      </c>
+      <c r="H64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" s="1">
+        <v>6</v>
+      </c>
+      <c r="G65" s="1">
+        <v>5</v>
+      </c>
+      <c r="H65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F66" s="1">
+        <v>6</v>
+      </c>
+      <c r="G66" s="1">
+        <v>5</v>
+      </c>
+      <c r="H66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F63" s="1">
-        <v>7</v>
-      </c>
-      <c r="G63" s="1">
-        <v>3</v>
-      </c>
-      <c r="H63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F67" s="1">
+        <v>6</v>
+      </c>
+      <c r="G67" s="1">
+        <v>5</v>
+      </c>
+      <c r="H67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F64" s="1">
-        <v>6</v>
-      </c>
-      <c r="G64" s="1">
-        <v>3</v>
-      </c>
-      <c r="H64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F68" s="1">
+        <v>7</v>
+      </c>
+      <c r="G68" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="F65" s="1">
-        <v>6</v>
-      </c>
-      <c r="G65" s="1">
-        <v>5</v>
-      </c>
-      <c r="H65" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F66" s="1">
-        <v>6</v>
-      </c>
-      <c r="G66" s="1">
-        <v>5</v>
-      </c>
-      <c r="H66" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F67" s="1">
-        <v>6</v>
-      </c>
-      <c r="G67" s="1">
-        <v>5</v>
-      </c>
-      <c r="H67" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F68" s="1">
-        <v>7</v>
-      </c>
-      <c r="G68" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="F69" s="1">
         <v>7</v>
@@ -4720,15 +4093,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F70" s="1">
         <v>8</v>
@@ -4737,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4753,35 +4126,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -4796,12 +4169,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -4816,12 +4189,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -4836,12 +4209,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -4856,12 +4229,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -4876,12 +4249,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -4908,35 +4281,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -4951,12 +4324,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -4971,12 +4344,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -4991,12 +4364,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -5011,12 +4384,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C6">
         <v>4</v>
